--- a/fydjob/data/dicts/skills_dict.xlsx
+++ b/fydjob/data/dicts/skills_dict.xlsx
@@ -7,7 +7,6 @@
     <sheet state="visible" name="knowledge" sheetId="2" r:id="rId4"/>
     <sheet state="visible" name="programming" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="soft_skills" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="tech_adjectives" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="429">
   <si>
     <t>finance</t>
   </si>
@@ -431,6 +430,60 @@
     <t>statistic</t>
   </si>
   <si>
+    <t>predictive</t>
+  </si>
+  <si>
+    <t>predictable</t>
+  </si>
+  <si>
+    <t>scientific</t>
+  </si>
+  <si>
+    <t>stochastic</t>
+  </si>
+  <si>
+    <t>econometric</t>
+  </si>
+  <si>
+    <t>holistic</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>causal</t>
+  </si>
+  <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>methodical</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>algorithmical</t>
+  </si>
+  <si>
+    <t>algorithmic</t>
+  </si>
+  <si>
+    <t>algorithms</t>
+  </si>
+  <si>
+    <t>methodological</t>
+  </si>
+  <si>
+    <t>quantitative</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
     <t>c#</t>
   </si>
   <si>
@@ -902,6 +955,105 @@
     <t>plsql</t>
   </si>
   <si>
+    <t>eltbased</t>
+  </si>
+  <si>
+    <t>iqvias</t>
+  </si>
+  <si>
+    <t>iqvia</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>algolia</t>
+  </si>
+  <si>
+    <t>powerapps</t>
+  </si>
+  <si>
+    <t>nginx</t>
+  </si>
+  <si>
+    <t>gerrit</t>
+  </si>
+  <si>
+    <t>disrupt</t>
+  </si>
+  <si>
+    <t>disruptive</t>
+  </si>
+  <si>
+    <t>transformational</t>
+  </si>
+  <si>
+    <t>dataflow</t>
+  </si>
+  <si>
+    <t>integrate</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>spice</t>
+  </si>
+  <si>
+    <t>architect</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>golive</t>
+  </si>
+  <si>
+    <t>codevelopment</t>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>relational</t>
+  </si>
+  <si>
+    <t>maintainable</t>
+  </si>
+  <si>
+    <t>slack</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>techcrunch</t>
+  </si>
+  <si>
+    <t>streamline</t>
+  </si>
+  <si>
+    <t>ldap</t>
+  </si>
+  <si>
+    <t>datadriven</t>
+  </si>
+  <si>
+    <t>incident</t>
+  </si>
+  <si>
+    <t>bestpractice</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>multicloud</t>
+  </si>
+  <si>
     <t>strength</t>
   </si>
   <si>
@@ -1149,168 +1301,6 @@
   </si>
   <si>
     <t>decisionmaking</t>
-  </si>
-  <si>
-    <t>predictive</t>
-  </si>
-  <si>
-    <t>predictable</t>
-  </si>
-  <si>
-    <t>scientific</t>
-  </si>
-  <si>
-    <t>stochastic</t>
-  </si>
-  <si>
-    <t>econometric</t>
-  </si>
-  <si>
-    <t>holistic</t>
-  </si>
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
-    <t>causal</t>
-  </si>
-  <si>
-    <t>diagnostic</t>
-  </si>
-  <si>
-    <t>methodical</t>
-  </si>
-  <si>
-    <t>eltbased</t>
-  </si>
-  <si>
-    <t>iqvias</t>
-  </si>
-  <si>
-    <t>iqvia</t>
-  </si>
-  <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>algolia</t>
-  </si>
-  <si>
-    <t>powerapps</t>
-  </si>
-  <si>
-    <t>nginx</t>
-  </si>
-  <si>
-    <t>gerrit</t>
-  </si>
-  <si>
-    <t>reusable</t>
-  </si>
-  <si>
-    <t>disrupt</t>
-  </si>
-  <si>
-    <t>disruptive</t>
-  </si>
-  <si>
-    <t>transformational</t>
-  </si>
-  <si>
-    <t>artificial</t>
-  </si>
-  <si>
-    <t>dataflow</t>
-  </si>
-  <si>
-    <t>integrate</t>
-  </si>
-  <si>
-    <t>integration</t>
-  </si>
-  <si>
-    <t>interface</t>
-  </si>
-  <si>
-    <t>spice</t>
-  </si>
-  <si>
-    <t>architect</t>
-  </si>
-  <si>
-    <t>architecture</t>
-  </si>
-  <si>
-    <t>golive</t>
-  </si>
-  <si>
-    <t>signal</t>
-  </si>
-  <si>
-    <t>codevelopment</t>
-  </si>
-  <si>
-    <t>technician</t>
-  </si>
-  <si>
-    <t>instagram</t>
-  </si>
-  <si>
-    <t>relational</t>
-  </si>
-  <si>
-    <t>algorithmical</t>
-  </si>
-  <si>
-    <t>algorithmic</t>
-  </si>
-  <si>
-    <t>algorithms</t>
-  </si>
-  <si>
-    <t>methodological</t>
-  </si>
-  <si>
-    <t>maintainable</t>
-  </si>
-  <si>
-    <t>slack</t>
-  </si>
-  <si>
-    <t>microsoft</t>
-  </si>
-  <si>
-    <t>techcrunch</t>
-  </si>
-  <si>
-    <t>streamline</t>
-  </si>
-  <si>
-    <t>ldap</t>
-  </si>
-  <si>
-    <t>datadriven</t>
-  </si>
-  <si>
-    <t>incident</t>
-  </si>
-  <si>
-    <t>bestpractice</t>
-  </si>
-  <si>
-    <t>mesh</t>
-  </si>
-  <si>
-    <t>insightdriven</t>
-  </si>
-  <si>
-    <t>quantitative</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>multicloud</t>
   </si>
 </sst>
 </file>
@@ -1376,10 +1366,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -1389,6 +1375,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -1628,6 +1617,11 @@
     <row r="48">
       <c r="A48" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2113,6 +2107,96 @@
         <v>137</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2130,812 +2214,977 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>294</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2955,37 +3204,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8">
@@ -2995,7 +3244,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
@@ -3005,667 +3254,377 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>322</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>353</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>357</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
   </sheetData>
